--- a/Intensivao de PYTHON/Aula 3 - Webscrapping/Produtos novos.xlsx
+++ b/Intensivao de PYTHON/Aula 3 - Webscrapping/Produtos novos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMAÇÂO\PYTHON\ESTUDOS\Cursos-Avancados-Python\Intensivao de PYTHON\Aula 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMAÇÂO\---------- PYTHON  ----------\1. PYTHON BASICO\ESTUDOS\Cursos-Avancados-Python\Intensivao de PYTHON\Aula 3 - Webscrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE07A9F-805C-4A07-822B-B8177E9332EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27C963C-2142-4B96-AD52-E065F323856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="24600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +100,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,37 +144,115 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +263,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A514A93-81E4-4FDA-B15C-40099043D837}" name="Tabela1" displayName="Tabela1" ref="A1:G8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:G8" xr:uid="{4A514A93-81E4-4FDA-B15C-40099043D837}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4F242476-EBB1-439E-BDFE-85A92DCCA381}" name="Produtos"/>
+    <tableColumn id="2" xr3:uid="{FEA324FB-0CB7-4823-878A-18F347521C26}" name="Preço Base Original" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F4B64885-60FA-40E7-AF8A-5CE7F1C580E3}" name="Moeda" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A483EBF6-A2CF-4FD8-A5F4-ED72C9744535}" name="Cotação" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{77916943-EC2C-42B6-83EA-1771EB5B2DB7}" name="Preço Base Reais" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{8E35342B-4F2D-463E-9A71-095E40C95E52}" name="Margem" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" xr3:uid="{94E122D3-622E-4327-A08A-3DA1D679593C}" name="Preço Final" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,38 +604,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
     <col min="5" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -522,22 +643,22 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>999.99</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>5.5346000000000002</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>5534.5446540000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="12">
         <v>1.4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>7748.3625155999998</v>
       </c>
     </row>
@@ -545,22 +666,22 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>4500</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>6.3329107040000006</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>28498.098168</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="12">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>56996.196336000008</v>
       </c>
     </row>
@@ -568,22 +689,22 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>899.99</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>5.5346000000000002</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>4981.0846540000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>1.7</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>8467.8439118000006</v>
       </c>
     </row>
@@ -591,22 +712,22 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>799</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>5.5346000000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>4422.1454000000003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>1.7</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>7517.6471799999999</v>
       </c>
     </row>
@@ -614,22 +735,22 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>3000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>6.3329107040000006</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>18998.732112000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="12">
         <v>1.9</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>36097.591012800003</v>
       </c>
     </row>
@@ -637,22 +758,22 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>480.48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>5.5346000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>2659.264608</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>5318.5292160000008</v>
       </c>
     </row>
@@ -660,26 +781,30 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>324.8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>6496</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>7470.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>